--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>M001</t>
   </si>
@@ -24,15 +24,18 @@
   <si>
     <t>M002</t>
   </si>
+  <si>
+    <t>https://sleepycat.in/wp-content/uploads/2022/05/Contour-SoftTouch-Memory-Foam-Pillow-640x480-img-1_Pack-of-2-3.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -61,7 +64,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,13 +94,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,18 +107,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,6 +130,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -120,6 +154,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -128,6 +184,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -136,30 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -168,43 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,25 +222,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +318,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +360,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,127 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +435,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -470,8 +493,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,171 +513,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -662,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,7 +930,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -945,13 +948,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://unbxd-pim-assets.s3.us-east-1.amazonaws.com/images/cadedcbe922732ec1b1e0f0c510077af/1739298975/A2ZDAAAAAAAAAAAA10-Anthology_FrontView.jpg" tooltip="https://unbxd-pim-assets.s3.us-east-1.amazonaws.com/images/cadedcbe922732ec1b1e0f0c510077af/1739298975/A2ZDAAAAAAAAAAAA10-Anthology_FrontView.jpg"/>
-    <hyperlink ref="B2" r:id="rId1" display="https://unbxd-pim-assets.s3.us-east-1.amazonaws.com/images/cadedcbe922732ec1b1e0f0c510077af/1739298975/A2ZDAAAAAAAAAAAA10-Anthology_FrontView.jpg"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://sleepycat.in/wp-content/uploads/2022/05/Contour-SoftTouch-Memory-Foam-Pillow-640x480-img-1_Pack-of-2-3.jpg" tooltip="https://sleepycat.in/wp-content/uploads/2022/05/Contour-SoftTouch-Memory-Foam-Pillow-640x480-img-1_Pack-of-2-3.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
